--- a/biology/Médecine/Plexus/Plexus.xlsx
+++ b/biology/Médecine/Plexus/Plexus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -514,11 +526,48 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un plexus (du latin plectere, entrelacer, tresser, apparenté au grec πλέκειν plekein « tresser » ) est un rassemblement avec anastomose de différents nerfs ou vaisseaux. En médecine, un plexus est une réorganisation fonctionnelle et spatiale de nerfs (plexus brachial par exemple).
-Système nerveux
-Les plexus peuvent désigner une partie du système nerveux. Les plexus constituent un avantage puisque le muscle d'un membre étant innervé par ce réseau de neurofibres ne peut être paralysé complètement à la suite de la lésion d'une racine ou d'un segment spinal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Plexus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plexus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Système nerveux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plexus peuvent désigner une partie du système nerveux. Les plexus constituent un avantage puisque le muscle d'un membre étant innervé par ce réseau de neurofibres ne peut être paralysé complètement à la suite de la lésion d'une racine ou d'un segment spinal.
 Dans le règne animal, les plexus nerveux sont des réseaux de fibres nerveuses. Exemples :
 le plexus cervical ;
 le plexus brachial ;
@@ -528,39 +577,7 @@
 le plexus lombaire (ou plexus lombal) est constitué de la réunion des nerfs spinaux lombaires ;
 les plexus d'Auerbach et de Meissner dans le système nerveux entérique.
 Seuls les rameaux ventraux des nerfs spinaux forment des « plexus ». 
-Système vasculaire
-Un plexus peut désigner une partie du système vasculaire. Le plexus artériel, veineux, ou capillaires, est constitué d'un important réseau anastomotique d'artères, de veines ou de capillaires. L'exemple le plus connu[réf. souhaitée] est l'ensemble des plexus choroïdes du cerveau. Au niveau du foie on retrouve également un plexus veineux, le système porte veineux.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Plexus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Plexus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Paléontologie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En paléontologie, Plexus est un nom de genre éteint d'organismes tubulaires de l'Édiacarien.</t>
         </is>
       </c>
     </row>
@@ -585,12 +602,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Revue</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Plexus (revue).</t>
+          <t>Système vasculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un plexus peut désigner une partie du système vasculaire. Le plexus artériel, veineux, ou capillaires, est constitué d'un important réseau anastomotique d'artères, de veines ou de capillaires. L'exemple le plus connu[réf. souhaitée] est l'ensemble des plexus choroïdes du cerveau. Au niveau du foie on retrouve également un plexus veineux, le système porte veineux.
+</t>
         </is>
       </c>
     </row>
@@ -615,12 +639,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Entreprise</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Plexus, entreprise américaine basée à Neenah, spécialisée dans la sous-traitance électronique, 11e entreprise mondiale dans ce domaine.</t>
+          <t>Paléontologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En paléontologie, Plexus est un nom de genre éteint d'organismes tubulaires de l'Édiacarien.</t>
         </is>
       </c>
     </row>
@@ -645,10 +671,76 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Revue</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Plexus (revue).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Plexus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plexus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Entreprise</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Plexus, entreprise américaine basée à Neenah, spécialisée dans la sous-traitance électronique, 11e entreprise mondiale dans ce domaine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Plexus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plexus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Plexus, un roman d'Henry Miller qui compose sa trilogie La Crucifixion en rose.
  Portail de la médecine                     </t>
